--- a/biology/Botanique/Charles_James_Meller/Charles_James_Meller.xlsx
+++ b/biology/Botanique/Charles_James_Meller/Charles_James_Meller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles James Meller, né en 1836 à Cobham et mort le 26 février 1869 à Allington House (auj. Victoria Inn, Berrima), est un naturaliste et médecin britannique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meller accompagne David Livingstone dans le bassin du Zambèze comme naturaliste et médecin de l'expédition (1858-1863)[1]. En 1862, malade, il rentre à l'île Maurice avec Archibald Anson (1826-1925) et voyage à Madagascar avec l'évêque Vincent William Ryan (1816-1888) avant de rejoindre de nouveau Livingstone en septembre 1862[2].
-Nommé vice-consul à Madagascar (1863-1865), il officie en 1865 aux Royal Botanic Gardens de Kew[3]. Revenu à l'île Maurice en 1866 où il est promu directeur du jardin botanique (1866-1868)[4], il part en 1868 pour un périple dans le Queensland mais, malade, doit rejoindre Sydney[5].
-Il meurt peu après à Allington House le 26 février 1869[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meller accompagne David Livingstone dans le bassin du Zambèze comme naturaliste et médecin de l'expédition (1858-1863). En 1862, malade, il rentre à l'île Maurice avec Archibald Anson (1826-1925) et voyage à Madagascar avec l'évêque Vincent William Ryan (1816-1888) avant de rejoindre de nouveau Livingstone en septembre 1862.
+Nommé vice-consul à Madagascar (1863-1865), il officie en 1865 aux Royal Botanic Gardens de Kew. Revenu à l'île Maurice en 1866 où il est promu directeur du jardin botanique (1866-1868), il part en 1868 pour un périple dans le Queensland mais, malade, doit rejoindre Sydney.
+Il meurt peu après à Allington House le 26 février 1869.
 Jules Verne le mentionne dans son roman Un capitaine de quinze ans (partie 2, chapitre XIV).
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canard de Meller ainsi que la mangouste de Meller, portent son nom.
 </t>
